--- a/Players Template File/Spreadsheet Battleship.xlsx
+++ b/Players Template File/Spreadsheet Battleship.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vdaware\Documents\Fun Games\Spreadsheet Battleship Multi-Player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vdaware\Documents\Fun Games\Spreadsheet Battleship Multi-Player\Version 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="🛥 Your Ships" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Spreadsheet Battleship</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Battleship</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>Cruiser</t>
@@ -321,6 +318,22 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -330,34 +343,18 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -367,7 +364,7 @@
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -375,39 +372,6 @@
         <color auto="1"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFB7B7B7"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7B7B7"/>
@@ -696,8 +660,8 @@
   </sheetPr>
   <dimension ref="A1:Z12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:T6"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -709,44 +673,44 @@
     <col min="17" max="20" width="8.85546875" style="3" customWidth="1"/>
     <col min="21" max="21" width="5.85546875" style="3" customWidth="1"/>
     <col min="22" max="23" width="12.5703125" style="3"/>
-    <col min="24" max="24" width="6" style="18" customWidth="1"/>
+    <col min="24" max="24" width="6" style="10" customWidth="1"/>
     <col min="25" max="25" width="17.7109375" style="3" customWidth="1"/>
     <col min="26" max="16384" width="12.5703125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="66.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="12" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="V1" s="17" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="V1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="17"/>
-      <c r="Y1" s="19" t="s">
+      <c r="W1" s="19"/>
+      <c r="Y1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="Z1" s="11" t="s">
         <v>4</v>
       </c>
     </row>
@@ -761,28 +725,28 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="V2" s="13" t="s">
+      <c r="K2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="V2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="16">
+      <c r="Z2" s="9">
         <v>5</v>
       </c>
     </row>
@@ -797,26 +761,26 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="V3" s="13" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="V3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="W3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Y3" s="13" t="s">
+      <c r="Y3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Z3" s="16">
+      <c r="Z3" s="9">
         <v>4</v>
       </c>
     </row>
@@ -831,26 +795,22 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="V4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="W4" s="14" t="s">
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="7"/>
+      <c r="Y4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Y4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="9">
         <v>3</v>
       </c>
     </row>
@@ -865,22 +825,22 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="Y5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z5" s="16">
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="Y5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="9">
         <v>2</v>
       </c>
     </row>
@@ -895,22 +855,22 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="Y6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z6" s="16">
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="Y6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z6" s="9">
         <v>1</v>
       </c>
     </row>
@@ -1010,8 +970,8 @@
   </sheetPr>
   <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1019,44 +979,44 @@
     <col min="1" max="20" width="8.85546875" customWidth="1"/>
     <col min="21" max="21" width="5.85546875" style="3" customWidth="1"/>
     <col min="22" max="23" width="12.5703125" style="3"/>
-    <col min="24" max="24" width="6" style="18" customWidth="1"/>
+    <col min="24" max="24" width="6" style="10" customWidth="1"/>
     <col min="25" max="25" width="17.7109375" style="3" customWidth="1"/>
     <col min="26" max="26" width="12.5703125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="66.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9" t="s">
+      <c r="A1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="V1" s="17" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="V1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="17"/>
-      <c r="Y1" s="19" t="s">
+      <c r="W1" s="19"/>
+      <c r="Y1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="Z1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="AA1" s="2"/>
@@ -1074,28 +1034,28 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="V2" s="13" t="s">
+      <c r="K2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="V2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="14" t="s">
+      <c r="W2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="16">
+      <c r="Z2" s="9">
         <v>5</v>
       </c>
       <c r="AA2" s="2"/>
@@ -1113,26 +1073,26 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="V3" s="13" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="V3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="W3" s="14" t="s">
+      <c r="W3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Y3" s="13" t="s">
+      <c r="Y3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Z3" s="16">
+      <c r="Z3" s="9">
         <v>4</v>
       </c>
       <c r="AA3" s="2"/>
@@ -1150,26 +1110,22 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="V4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="W4" s="14" t="s">
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="7"/>
+      <c r="Y4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Y4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="9">
         <v>3</v>
       </c>
       <c r="AA4" s="2"/>
@@ -1187,22 +1143,22 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="Y5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z5" s="16">
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="Y5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="9">
         <v>2</v>
       </c>
       <c r="AA5" s="2"/>
@@ -1220,22 +1176,22 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="Y6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z6" s="16">
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="Y6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z6" s="9">
         <v>1</v>
       </c>
       <c r="AA6" s="2"/>
